--- a/data/TA2 ESTCP Remediation Performance Database.xlsx
+++ b/data/TA2 ESTCP Remediation Performance Database.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmori\Desktop\GSI Work Files\5648_SERDP_Borden\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmori\Desktop\GSI Work Files\5648_SERDP_Borden\5648_TA2_Transition_Assessment_Assistant_working\5648_TA2-Transition-Assessment-Assistant_1a\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7DE011-AEBA-491A-B18D-D6C4A73D3B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6517AB-B7CF-45B5-8B4A-BFAFD1FCEB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="960" windowWidth="21600" windowHeight="11835" xr2:uid="{3A921789-A997-457C-88CB-3A9335BCB302}"/>
+    <workbookView xWindow="3930" yWindow="2085" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{3A921789-A997-457C-88CB-3A9335BCB302}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$K$308</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="386">
   <si>
     <t>Technology</t>
   </si>
@@ -167,9 +172,6 @@
   </si>
   <si>
     <t>C-15</t>
-  </si>
-  <si>
-    <t>CB</t>
   </si>
   <si>
     <t>C-16</t>
@@ -1159,6 +1161,57 @@
   <si>
     <t>5 OoM Reduction</t>
   </si>
+  <si>
+    <t>Chlorobenzene</t>
+  </si>
+  <si>
+    <t>cis-DCE</t>
+  </si>
+  <si>
+    <t>1,1-DCE</t>
+  </si>
+  <si>
+    <t>Vinyl Chloride</t>
+  </si>
+  <si>
+    <t>1,1-DCA</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>1,2-DCA</t>
+  </si>
+  <si>
+    <t>Ethylbenzene</t>
+  </si>
+  <si>
+    <t>Toluene</t>
+  </si>
+  <si>
+    <t>Xylene</t>
+  </si>
+  <si>
+    <t>MTBE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source: </t>
+  </si>
+  <si>
+    <t>https://www.epa.gov/ground-water-and-drinking-water/national-primary-drinking-water-regulations</t>
+  </si>
+  <si>
+    <t>MCL (mg/L)</t>
+  </si>
+  <si>
+    <t>MCL (ug/L)</t>
+  </si>
+  <si>
+    <t>Chem</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3558766/#bib3</t>
+  </si>
 </sst>
 </file>
 
@@ -1169,7 +1222,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1234,6 +1287,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ArialMT"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1347,11 +1419,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -1406,6 +1479,26 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1425,7 +1518,8 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -1749,11 +1843,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6BFBFF8-C709-4F8D-A976-F079B0C6A382}">
   <dimension ref="A1:AF309"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="D309" sqref="D309"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" style="9" customWidth="1"/>
     <col min="2" max="2" width="25.140625" style="9" customWidth="1"/>
@@ -1766,9 +1860,9 @@
     <col min="11" max="11" width="16.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32">
       <c r="C1" s="17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="2"/>
@@ -1776,34 +1870,34 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="31" t="s">
         <v>357</v>
       </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="25"/>
-    </row>
-    <row r="2" spans="1:32" ht="75.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="33"/>
+    </row>
+    <row r="2" spans="1:32" ht="75.95" customHeight="1">
       <c r="A2" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>0</v>
@@ -1821,10 +1915,10 @@
         <v>4</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>5</v>
@@ -1835,34 +1929,34 @@
       <c r="K2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="20" t="s">
-        <v>356</v>
-      </c>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="20" t="s">
-        <v>359</v>
-      </c>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="22"/>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="M2" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="30"/>
+    </row>
+    <row r="3" spans="1:32">
       <c r="A3" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>9</v>
@@ -1899,9 +1993,9 @@
         <v>5.1348143703204601</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32">
       <c r="A4" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>9</v>
@@ -1934,13 +2028,13 @@
         <v>-0.3010299956639812</v>
       </c>
       <c r="K4" s="8">
-        <f t="shared" ref="K3:K66" si="3">I4-J4</f>
+        <f t="shared" ref="K4:K66" si="3">I4-J4</f>
         <v>5.0644579892269181</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32">
       <c r="A5" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>16</v>
@@ -1977,15 +2071,15 @@
         <v>4.9666109866819346</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32">
       <c r="A6" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>11</v>
@@ -2016,9 +2110,9 @@
         <v>4.4771212547196626</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32">
       <c r="A7" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>9</v>
@@ -2055,9 +2149,9 @@
         <v>4.1461280356782382</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32">
       <c r="A8" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>9</v>
@@ -2094,9 +2188,9 @@
         <v>4.0962661367123516</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32">
       <c r="A9" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>9</v>
@@ -2133,9 +2227,9 @@
         <v>3.8702087605972877</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32">
       <c r="A10" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>9</v>
@@ -2172,9 +2266,9 @@
         <v>3.8699216237392884</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32">
       <c r="A11" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>28</v>
@@ -2205,9 +2299,9 @@
         <v>3.4263078923690991</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>9</v>
@@ -2244,9 +2338,9 @@
         <v>3.4244700562110868</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>9</v>
@@ -2283,9 +2377,9 @@
         <v>3.3979400086720375</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32">
       <c r="A14" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>9</v>
@@ -2322,9 +2416,9 @@
         <v>3.3336603378553038</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>9</v>
@@ -2361,9 +2455,9 @@
         <v>3.2988530764097068</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32">
       <c r="A16" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>28</v>
@@ -2395,7 +2489,7 @@
         <v>3.2881746749783938</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="9" t="s">
         <v>43</v>
       </c>
@@ -2434,9 +2528,9 @@
         <v>3.2596373105057563</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>31</v>
@@ -2473,9 +2567,9 @@
         <v>3.1760912590556813</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>9</v>
@@ -2512,9 +2606,9 @@
         <v>2.9652378937407882</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>9</v>
@@ -2551,9 +2645,9 @@
         <v>2.8549747016435676</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>9</v>
@@ -2590,9 +2684,9 @@
         <v>2.8538719643217623</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>9</v>
@@ -2629,9 +2723,9 @@
         <v>2.8061799739838871</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>16</v>
@@ -2668,9 +2762,9 @@
         <v>2.644612342013426</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>16</v>
@@ -2707,15 +2801,15 @@
         <v>2.5978638767343543</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>11</v>
@@ -2746,9 +2840,9 @@
         <v>2.4806775202103353</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>31</v>
@@ -2785,9 +2879,9 @@
         <v>2.4436974992327127</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>16</v>
@@ -2824,9 +2918,9 @@
         <v>2.4259687322722816</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>9</v>
@@ -2863,9 +2957,9 @@
         <v>2.3957543597927029</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>9</v>
@@ -2902,9 +2996,9 @@
         <v>2.3847117429382823</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>9</v>
@@ -2941,9 +3035,9 @@
         <v>2.3511966051297115</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>16</v>
@@ -2980,9 +3074,9 @@
         <v>2.3116415580386471</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>9</v>
@@ -3019,9 +3113,9 @@
         <v>2.2874571884747077</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>9</v>
@@ -3058,9 +3152,9 @@
         <v>2.27415784926368</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>9</v>
@@ -3097,9 +3191,9 @@
         <v>2.2384744919993396</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>9</v>
@@ -3136,9 +3230,9 @@
         <v>2.2384744919993396</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>24</v>
@@ -3175,9 +3269,9 @@
         <v>2.1804560644581312</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>16</v>
@@ -3214,9 +3308,9 @@
         <v>2.1760912590556818</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>31</v>
@@ -3253,9 +3347,9 @@
         <v>2.149298082467745</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>9</v>
@@ -3292,18 +3386,18 @@
         <v>2.0791812460476251</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E40" s="14">
         <v>5.4164383561643836</v>
@@ -3331,9 +3425,9 @@
         <v>2.0347621062592118</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>16</v>
@@ -3370,9 +3464,9 @@
         <v>2.030933714243651</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="A42" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>9</v>
@@ -3409,9 +3503,9 @@
         <v>2.0293837776852097</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>9</v>
@@ -3448,9 +3542,9 @@
         <v>2.0287717425700245</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>31</v>
@@ -3487,9 +3581,9 @@
         <v>2.0216737324519047</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>9</v>
@@ -3526,15 +3620,15 @@
         <v>1.9803453120035299</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="A46" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>11</v>
@@ -3565,7 +3659,7 @@
         <v>1.9586073148417751</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="A47" s="9" t="s">
         <v>20</v>
       </c>
@@ -3604,9 +3698,9 @@
         <v>1.9542425094393252</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="A48" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>28</v>
@@ -3637,9 +3731,9 @@
         <v>1.9420080530223136</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>29</v>
@@ -3676,9 +3770,9 @@
         <v>1.9393021596463884</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>16</v>
@@ -3715,9 +3809,9 @@
         <v>1.8167301563171954</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>16</v>
@@ -3754,15 +3848,15 @@
         <v>1.803705354856032</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>11</v>
@@ -3793,9 +3887,9 @@
         <v>1.7140337507718941</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>24</v>
@@ -3832,9 +3926,9 @@
         <v>1.7120414131837776</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>9</v>
@@ -3871,9 +3965,9 @@
         <v>1.7103994661168009</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>9</v>
@@ -3910,9 +4004,9 @@
         <v>1.6812412373755876</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>16</v>
@@ -3949,9 +4043,9 @@
         <v>1.6478174818886377</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>31</v>
@@ -3988,9 +4082,9 @@
         <v>1.5642714304385623</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>9</v>
@@ -4027,9 +4121,9 @@
         <v>1.5625514500442894</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>16</v>
@@ -4066,9 +4160,9 @@
         <v>1.554287209531962</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>16</v>
@@ -4105,9 +4199,9 @@
         <v>1.537819095073274</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="A61" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>9</v>
@@ -4144,15 +4238,15 @@
         <v>1.5228787452803378</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>13</v>
@@ -4183,9 +4277,9 @@
         <v>1.5228787452803374</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="A63" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>16</v>
@@ -4222,9 +4316,9 @@
         <v>1.4771212547196622</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="A64" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>31</v>
@@ -4261,9 +4355,9 @@
         <v>1.4679778752797925</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11">
       <c r="A65" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>9</v>
@@ -4300,9 +4394,9 @@
         <v>1.3587251920446062</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11">
       <c r="A66" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>9</v>
@@ -4339,9 +4433,9 @@
         <v>1.348476668080494</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11">
       <c r="A67" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>9</v>
@@ -4378,9 +4472,9 @@
         <v>1.3273589343863303</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11">
       <c r="A68" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>16</v>
@@ -4417,9 +4511,9 @@
         <v>1.3212782445674418</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11">
       <c r="A69" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B69" s="9" t="s">
         <v>16</v>
@@ -4456,9 +4550,9 @@
         <v>1.3145456103748248</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11">
       <c r="A70" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>9</v>
@@ -4495,9 +4589,9 @@
         <v>1.2944991285050236</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11">
       <c r="A71" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>9</v>
@@ -4534,9 +4628,9 @@
         <v>1.2744322271701867</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11">
       <c r="A72" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B72" s="9" t="s">
         <v>24</v>
@@ -4573,9 +4667,9 @@
         <v>1.2680736902680314</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11">
       <c r="A73" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B73" s="9" t="s">
         <v>9</v>
@@ -4612,9 +4706,9 @@
         <v>1.2662678894047692</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11">
       <c r="A74" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B74" s="9" t="s">
         <v>9</v>
@@ -4651,9 +4745,9 @@
         <v>1.255272505103306</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11">
       <c r="A75" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B75" s="9" t="s">
         <v>16</v>
@@ -4690,9 +4784,9 @@
         <v>1.2521592696791632</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11">
       <c r="A76" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B76" s="9" t="s">
         <v>16</v>
@@ -4729,9 +4823,9 @@
         <v>1.2467981975596008</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11">
       <c r="A77" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B77" s="9" t="s">
         <v>16</v>
@@ -4768,9 +4862,9 @@
         <v>1.2037005770396472</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11">
       <c r="A78" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B78" s="9" t="s">
         <v>16</v>
@@ -4807,9 +4901,9 @@
         <v>1.1813237859893584</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11">
       <c r="A79" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B79" s="9" t="s">
         <v>9</v>
@@ -4846,9 +4940,9 @@
         <v>1.1798842480728204</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11">
       <c r="A80" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>9</v>
@@ -4885,9 +4979,9 @@
         <v>1.1797874046156451</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11">
       <c r="A81" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B81" s="9" t="s">
         <v>24</v>
@@ -4924,9 +5018,9 @@
         <v>1.1760912590556813</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11">
       <c r="A82" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B82" s="9" t="s">
         <v>16</v>
@@ -4963,15 +5057,15 @@
         <v>1.1680236373076487</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11">
       <c r="A83" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B83" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>11</v>
@@ -5002,9 +5096,9 @@
         <v>1.1663314217665248</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11">
       <c r="A84" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>31</v>
@@ -5041,9 +5135,9 @@
         <v>1.1597008428675122</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11">
       <c r="A85" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B85" s="9" t="s">
         <v>9</v>
@@ -5080,9 +5174,9 @@
         <v>1.1597008428675117</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11">
       <c r="A86" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>16</v>
@@ -5119,9 +5213,9 @@
         <v>1.0956493605063122</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11">
       <c r="A87" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B87" s="9" t="s">
         <v>9</v>
@@ -5158,15 +5252,15 @@
         <v>1.0923827026525772</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11">
       <c r="A88" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>11</v>
@@ -5197,9 +5291,9 @@
         <v>1.0595856899842442</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11">
       <c r="A89" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B89" s="9" t="s">
         <v>16</v>
@@ -5236,9 +5330,9 @@
         <v>1.0543576623225928</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11">
       <c r="A90" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B90" s="9" t="s">
         <v>16</v>
@@ -5275,9 +5369,9 @@
         <v>1.0413926851582254</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11">
       <c r="A91" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B91" s="9" t="s">
         <v>16</v>
@@ -5314,9 +5408,9 @@
         <v>1.0413926851582245</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11">
       <c r="A92" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B92" s="9" t="s">
         <v>9</v>
@@ -5353,9 +5447,9 @@
         <v>1.0311136730088759</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11">
       <c r="A93" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B93" s="9" t="s">
         <v>16</v>
@@ -5364,7 +5458,7 @@
         <v>17</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>44</v>
+        <v>369</v>
       </c>
       <c r="E93" s="14">
         <v>2.4164383561643836</v>
@@ -5392,15 +5486,15 @@
         <v>1.0263289387223491</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11">
       <c r="A94" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B94" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>13</v>
@@ -5431,9 +5525,9 @@
         <v>1.0248235837250319</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11">
       <c r="A95" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B95" s="9" t="s">
         <v>9</v>
@@ -5470,9 +5564,9 @@
         <v>1.0234810958495228</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11">
       <c r="A96" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B96" s="9" t="s">
         <v>24</v>
@@ -5509,9 +5603,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11">
       <c r="A97" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B97" s="9" t="s">
         <v>9</v>
@@ -5548,9 +5642,9 @@
         <v>0.98069484480461333</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11">
       <c r="A98" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B98" s="9" t="s">
         <v>31</v>
@@ -5587,9 +5681,9 @@
         <v>0.96781531662859877</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11">
       <c r="A99" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B99" s="9" t="s">
         <v>16</v>
@@ -5626,9 +5720,9 @@
         <v>0.96657624451305013</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11">
       <c r="A100" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B100" s="9" t="s">
         <v>9</v>
@@ -5665,9 +5759,9 @@
         <v>0.96348316617423757</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11">
       <c r="A101" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B101" s="9" t="s">
         <v>16</v>
@@ -5704,9 +5798,9 @@
         <v>0.93460703843800852</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11">
       <c r="A102" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B102" s="9" t="s">
         <v>16</v>
@@ -5743,15 +5837,15 @@
         <v>0.92427928606188114</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11">
       <c r="A103" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B103" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>11</v>
@@ -5782,9 +5876,9 @@
         <v>0.92081875395237511</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11">
       <c r="A104" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>16</v>
@@ -5821,9 +5915,9 @@
         <v>0.91127343604614497</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11">
       <c r="A105" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B105" s="9" t="s">
         <v>9</v>
@@ -5860,9 +5954,9 @@
         <v>0.90724594676310133</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11">
       <c r="A106" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B106" s="9" t="s">
         <v>9</v>
@@ -5899,15 +5993,15 @@
         <v>0.90308998699194332</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11">
       <c r="A107" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B107" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D107" s="9" t="s">
         <v>13</v>
@@ -5938,9 +6032,9 @@
         <v>0.89209460269048035</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11">
       <c r="A108" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B108" s="9" t="s">
         <v>31</v>
@@ -5977,9 +6071,9 @@
         <v>0.88802624055606794</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11">
       <c r="A109" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B109" s="9" t="s">
         <v>9</v>
@@ -6016,9 +6110,9 @@
         <v>0.88496955205194938</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11">
       <c r="A110" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B110" s="9" t="s">
         <v>9</v>
@@ -6055,9 +6149,9 @@
         <v>0.88081359228079137</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11">
       <c r="A111" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B111" s="9" t="s">
         <v>9</v>
@@ -6094,9 +6188,9 @@
         <v>0.87806677353142559</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11">
       <c r="A112" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B112" s="9" t="s">
         <v>9</v>
@@ -6133,9 +6227,9 @@
         <v>0.85657785769768724</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11">
       <c r="A113" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B113" s="9" t="s">
         <v>16</v>
@@ -6172,15 +6266,15 @@
         <v>0.84556780153318245</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11">
       <c r="A114" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B114" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D114" s="9" t="s">
         <v>11</v>
@@ -6211,9 +6305,9 @@
         <v>0.83366857823347518</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11">
       <c r="A115" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B115" s="9" t="s">
         <v>9</v>
@@ -6250,9 +6344,9 @@
         <v>0.82390874094431887</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11">
       <c r="A116" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B116" s="9" t="s">
         <v>16</v>
@@ -6289,9 +6383,9 @@
         <v>0.81857990743925146</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11">
       <c r="A117" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B117" s="9" t="s">
         <v>16</v>
@@ -6328,9 +6422,9 @@
         <v>0.80670671083669632</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11">
       <c r="A118" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B118" s="9" t="s">
         <v>28</v>
@@ -6361,9 +6455,9 @@
         <v>0.80625718875551966</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11">
       <c r="A119" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B119" s="9" t="s">
         <v>9</v>
@@ -6400,9 +6494,9 @@
         <v>0.80370535485603201</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11">
       <c r="A120" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B120" s="9" t="s">
         <v>9</v>
@@ -6439,9 +6533,9 @@
         <v>0.7939455175668757</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11">
       <c r="A121" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B121" s="9" t="s">
         <v>16</v>
@@ -6478,9 +6572,9 @@
         <v>0.79385533077766079</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11">
       <c r="A122" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B122" s="9" t="s">
         <v>9</v>
@@ -6517,9 +6611,9 @@
         <v>0.79145671716318056</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11">
       <c r="A123" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B123" s="9" t="s">
         <v>16</v>
@@ -6556,9 +6650,9 @@
         <v>0.78800739424418964</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11">
       <c r="A124" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B124" s="9" t="s">
         <v>9</v>
@@ -6595,9 +6689,9 @@
         <v>0.78287188905622784</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11">
       <c r="A125" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B125" s="9" t="s">
         <v>16</v>
@@ -6634,9 +6728,9 @@
         <v>0.7756040613697639</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11">
       <c r="A126" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B126" s="9" t="s">
         <v>9</v>
@@ -6673,9 +6767,9 @@
         <v>0.76755817688621941</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11">
       <c r="A127" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B127" s="9" t="s">
         <v>16</v>
@@ -6712,9 +6806,9 @@
         <v>0.7591066197802947</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11">
       <c r="A128" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B128" s="9" t="s">
         <v>16</v>
@@ -6751,9 +6845,9 @@
         <v>0.75519292857485887</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11">
       <c r="A129" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B129" s="9" t="s">
         <v>9</v>
@@ -6790,9 +6884,9 @@
         <v>0.75332766665861151</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11">
       <c r="A130" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B130" s="9" t="s">
         <v>9</v>
@@ -6829,9 +6923,9 @@
         <v>0.75281643118827146</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11">
       <c r="A131" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B131" s="9" t="s">
         <v>31</v>
@@ -6840,7 +6934,7 @@
         <v>32</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E131" s="14">
         <v>0.99082191780822315</v>
@@ -6868,9 +6962,9 @@
         <v>0.70329137811866094</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11">
       <c r="A132" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B132" s="9" t="s">
         <v>16</v>
@@ -6907,9 +7001,9 @@
         <v>0.69383036468360793</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11">
       <c r="A133" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B133" s="9" t="s">
         <v>9</v>
@@ -6946,9 +7040,9 @@
         <v>0.68574173860226351</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11">
       <c r="A134" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B134" s="9" t="s">
         <v>31</v>
@@ -6985,9 +7079,9 @@
         <v>0.68399284836636642</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11">
       <c r="A135" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B135" s="9" t="s">
         <v>16</v>
@@ -7024,9 +7118,9 @@
         <v>0.68193666503723849</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11">
       <c r="A136" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B136" s="9" t="s">
         <v>9</v>
@@ -7063,9 +7157,9 @@
         <v>0.68048659864200589</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11">
       <c r="A137" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B137" s="9" t="s">
         <v>16</v>
@@ -7102,9 +7196,9 @@
         <v>0.6787666182477321</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11">
       <c r="A138" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B138" s="9" t="s">
         <v>28</v>
@@ -7135,9 +7229,9 @@
         <v>0.67164687712478388</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11">
       <c r="A139" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B139" s="9" t="s">
         <v>9</v>
@@ -7174,9 +7268,9 @@
         <v>0.66617749093971135</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11">
       <c r="A140" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B140" s="9" t="s">
         <v>9</v>
@@ -7213,9 +7307,9 @@
         <v>0.661181443446619</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11">
       <c r="A141" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B141" s="9" t="s">
         <v>9</v>
@@ -7252,9 +7346,9 @@
         <v>0.64032449142324488</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11">
       <c r="A142" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B142" s="9" t="s">
         <v>31</v>
@@ -7291,9 +7385,9 @@
         <v>0.63424467469936374</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11">
       <c r="A143" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B143" s="9" t="s">
         <v>9</v>
@@ -7330,7 +7424,7 @@
         <v>0.61291077949627604</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11">
       <c r="A144" s="9" t="s">
         <v>15</v>
       </c>
@@ -7369,15 +7463,15 @@
         <v>0.58706922942833106</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11">
       <c r="A145" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B145" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D145" s="9" t="s">
         <v>11</v>
@@ -7408,9 +7502,9 @@
         <v>0.56820172406699498</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11">
       <c r="A146" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B146" s="9" t="s">
         <v>9</v>
@@ -7447,9 +7541,9 @@
         <v>0.56066730616973715</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11">
       <c r="A147" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B147" s="9" t="s">
         <v>9</v>
@@ -7486,9 +7580,9 @@
         <v>0.55840689970927038</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11">
       <c r="A148" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B148" s="9" t="s">
         <v>28</v>
@@ -7520,9 +7614,9 @@
         <v>0.55319065954917646</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11">
       <c r="A149" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B149" s="9" t="s">
         <v>16</v>
@@ -7559,9 +7653,9 @@
         <v>0.55074824083776974</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11">
       <c r="A150" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B150" s="9" t="s">
         <v>9</v>
@@ -7598,9 +7692,9 @@
         <v>0.50514997831990582</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11">
       <c r="A151" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B151" s="9" t="s">
         <v>9</v>
@@ -7637,9 +7731,9 @@
         <v>0.50399340111996382</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11">
       <c r="A152" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B152" s="9" t="s">
         <v>9</v>
@@ -7676,15 +7770,15 @@
         <v>0.49301461933216739</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11">
       <c r="A153" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B153" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D153" s="9" t="s">
         <v>13</v>
@@ -7715,9 +7809,9 @@
         <v>0.49008623188403</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11">
       <c r="A154" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B154" s="9" t="s">
         <v>9</v>
@@ -7754,9 +7848,9 @@
         <v>0.44715803134221943</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11">
       <c r="A155" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B155" s="9" t="s">
         <v>16</v>
@@ -7793,9 +7887,9 @@
         <v>0.43253912206692213</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11">
       <c r="A156" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B156" s="9" t="s">
         <v>28</v>
@@ -7826,9 +7920,9 @@
         <v>0.43179827593300502</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11">
       <c r="A157" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B157" s="9" t="s">
         <v>16</v>
@@ -7865,9 +7959,9 @@
         <v>0.43012469204343873</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11">
       <c r="A158" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B158" s="9" t="s">
         <v>9</v>
@@ -7904,9 +7998,9 @@
         <v>0.42387574276643747</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11">
       <c r="A159" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B159" s="9" t="s">
         <v>9</v>
@@ -7943,9 +8037,9 @@
         <v>0.42207368838875681</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11">
       <c r="A160" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B160" s="9" t="s">
         <v>9</v>
@@ -7982,9 +8076,9 @@
         <v>0.39211046501131364</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11">
       <c r="A161" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B161" s="9" t="s">
         <v>24</v>
@@ -8021,9 +8115,9 @@
         <v>0.39120662601306888</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11">
       <c r="A162" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B162" s="9" t="s">
         <v>16</v>
@@ -8060,9 +8154,9 @@
         <v>0.39043040689329223</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11">
       <c r="A163" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B163" s="9" t="s">
         <v>9</v>
@@ -8099,9 +8193,9 @@
         <v>0.36797678529459477</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11">
       <c r="A164" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B164" s="9" t="s">
         <v>24</v>
@@ -8138,9 +8232,9 @@
         <v>0.36797678529459477</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11">
       <c r="A165" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B165" s="9" t="s">
         <v>9</v>
@@ -8177,9 +8271,9 @@
         <v>0.36797678529459477</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11">
       <c r="A166" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B166" s="9" t="s">
         <v>9</v>
@@ -8216,9 +8310,9 @@
         <v>0.36797678529459432</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11">
       <c r="A167" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B167" s="9" t="s">
         <v>16</v>
@@ -8255,9 +8349,9 @@
         <v>0.36737401700643346</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11">
       <c r="A168" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B168" s="9" t="s">
         <v>9</v>
@@ -8294,9 +8388,9 @@
         <v>0.36015144778263775</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11">
       <c r="A169" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B169" s="9" t="s">
         <v>16</v>
@@ -8333,9 +8427,9 @@
         <v>0.34678748622465605</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11">
       <c r="A170" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B170" s="9" t="s">
         <v>9</v>
@@ -8372,9 +8466,9 @@
         <v>0.34294414714289623</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11">
       <c r="A171" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B171" s="9" t="s">
         <v>9</v>
@@ -8411,9 +8505,9 @@
         <v>0.3399480616943511</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11">
       <c r="A172" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B172" s="9" t="s">
         <v>26</v>
@@ -8450,15 +8544,15 @@
         <v>0.33729063313339802</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11">
       <c r="A173" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B173" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D173" s="9" t="s">
         <v>11</v>
@@ -8489,9 +8583,9 @@
         <v>0.33065246227078227</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11">
       <c r="A174" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B174" s="9" t="s">
         <v>31</v>
@@ -8528,9 +8622,9 @@
         <v>0.3233063903751332</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11">
       <c r="A175" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B175" s="9" t="s">
         <v>9</v>
@@ -8567,9 +8661,9 @@
         <v>0.30539480106643113</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11">
       <c r="A176" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B176" s="9" t="s">
         <v>16</v>
@@ -8606,9 +8700,9 @@
         <v>0.30102999566398125</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11">
       <c r="A177" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B177" s="9" t="s">
         <v>9</v>
@@ -8645,9 +8739,9 @@
         <v>0.28399665636520055</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11">
       <c r="A178" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B178" s="9" t="s">
         <v>24</v>
@@ -8684,9 +8778,9 @@
         <v>0.27174061956199314</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11">
       <c r="A179" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B179" s="9" t="s">
         <v>28</v>
@@ -8717,9 +8811,9 @@
         <v>0.26999576192401253</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11">
       <c r="A180" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B180" s="9" t="s">
         <v>9</v>
@@ -8756,9 +8850,9 @@
         <v>0.26884531229258002</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11">
       <c r="A181" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B181" s="9" t="s">
         <v>16</v>
@@ -8795,9 +8889,9 @@
         <v>0.26884531229258002</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11">
       <c r="A182" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B182" s="9" t="s">
         <v>9</v>
@@ -8834,9 +8928,9 @@
         <v>0.25661085587556887</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11">
       <c r="A183" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B183" s="9" t="s">
         <v>9</v>
@@ -8873,9 +8967,9 @@
         <v>0.25610548446564874</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11">
       <c r="A184" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B184" s="9" t="s">
         <v>9</v>
@@ -8912,9 +9006,9 @@
         <v>0.24303804868629442</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11">
       <c r="A185" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B185" s="9" t="s">
         <v>9</v>
@@ -8951,9 +9045,9 @@
         <v>0.2313940675225874</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11">
       <c r="A186" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B186" s="9" t="s">
         <v>16</v>
@@ -8990,9 +9084,9 @@
         <v>0.23024117467165617</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11">
       <c r="A187" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B187" s="9" t="s">
         <v>9</v>
@@ -9029,9 +9123,9 @@
         <v>0.22184874961635614</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11">
       <c r="A188" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B188" s="9" t="s">
         <v>26</v>
@@ -9068,9 +9162,9 @@
         <v>0.21454951087485696</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11">
       <c r="A189" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B189" s="9" t="s">
         <v>9</v>
@@ -9107,9 +9201,9 @@
         <v>0.20091484278071325</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11">
       <c r="A190" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B190" s="9" t="s">
         <v>9</v>
@@ -9146,9 +9240,9 @@
         <v>0.19382002601611248</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11">
       <c r="A191" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B191" s="9" t="s">
         <v>28</v>
@@ -9179,9 +9273,9 @@
         <v>0.19105041728463368</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11">
       <c r="A192" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B192" s="9" t="s">
         <v>9</v>
@@ -9218,9 +9312,9 @@
         <v>0.18572521753409532</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11">
       <c r="A193" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B193" s="9" t="s">
         <v>16</v>
@@ -9257,9 +9351,9 @@
         <v>0.1810065279710833</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11">
       <c r="A194" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B194" s="9" t="s">
         <v>28</v>
@@ -9291,9 +9385,9 @@
         <v>0.17123875626126939</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11">
       <c r="A195" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B195" s="9" t="s">
         <v>16</v>
@@ -9330,9 +9424,9 @@
         <v>0.16926543108414549</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11">
       <c r="A196" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B196" s="9" t="s">
         <v>16</v>
@@ -9369,7 +9463,7 @@
         <v>0.15490195998574308</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11">
       <c r="A197" s="9" t="s">
         <v>19</v>
       </c>
@@ -9408,9 +9502,9 @@
         <v>0.1497145720531563</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11">
       <c r="A198" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B198" s="9" t="s">
         <v>31</v>
@@ -9447,9 +9541,9 @@
         <v>0.13830269816628116</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11">
       <c r="A199" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B199" s="9" t="s">
         <v>9</v>
@@ -9486,9 +9580,9 @@
         <v>0.13330938604553921</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11">
       <c r="A200" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B200" s="9" t="s">
         <v>9</v>
@@ -9525,9 +9619,9 @@
         <v>0.13127891463931896</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11">
       <c r="A201" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B201" s="9" t="s">
         <v>9</v>
@@ -9564,9 +9658,9 @@
         <v>0.12493873660829991</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11">
       <c r="A202" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B202" s="9" t="s">
         <v>9</v>
@@ -9603,9 +9697,9 @@
         <v>0.1105897102992488</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11">
       <c r="A203" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B203" s="9" t="s">
         <v>16</v>
@@ -9642,9 +9736,9 @@
         <v>0.10914446942506828</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11">
       <c r="A204" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B204" s="9" t="s">
         <v>9</v>
@@ -9681,9 +9775,9 @@
         <v>9.8989639401177332E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11">
       <c r="A205" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B205" s="9" t="s">
         <v>9</v>
@@ -9720,9 +9814,9 @@
         <v>9.4786319378200812E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11">
       <c r="A206" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B206" s="9" t="s">
         <v>9</v>
@@ -9759,9 +9853,9 @@
         <v>8.7150175718900158E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11">
       <c r="A207" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B207" s="9" t="s">
         <v>9</v>
@@ -9798,9 +9892,9 @@
         <v>8.7150175718900158E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11">
       <c r="A208" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B208" s="9" t="s">
         <v>16</v>
@@ -9837,7 +9931,7 @@
         <v>7.2086429283024778E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11">
       <c r="A209" s="9" t="s">
         <v>23</v>
       </c>
@@ -9876,9 +9970,9 @@
         <v>6.1518037919214841E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11">
       <c r="A210" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B210" s="9" t="s">
         <v>9</v>
@@ -9915,9 +10009,9 @@
         <v>5.3056729302174865E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11">
       <c r="A211" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B211" s="9" t="s">
         <v>9</v>
@@ -9954,9 +10048,9 @@
         <v>3.4762106259211834E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11">
       <c r="A212" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B212" s="9" t="s">
         <v>9</v>
@@ -9993,9 +10087,9 @@
         <v>2.5935734094399976E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11">
       <c r="A213" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B213" s="9" t="s">
         <v>28</v>
@@ -10027,9 +10121,9 @@
         <v>2.3849610493529294E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11">
       <c r="A214" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B214" s="9" t="s">
         <v>9</v>
@@ -10066,9 +10160,9 @@
         <v>1.9595556063380482E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11">
       <c r="A215" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B215" s="9" t="s">
         <v>16</v>
@@ -10105,9 +10199,9 @@
         <v>1.5605073330576147E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11">
       <c r="A216" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B216" s="9" t="s">
         <v>9</v>
@@ -10144,15 +10238,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11">
       <c r="A217" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B217" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C217" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D217" s="9" t="s">
         <v>37</v>
@@ -10183,9 +10277,9 @@
         <v>-2.9963223377443171E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11">
       <c r="A218" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B218" s="9" t="s">
         <v>28</v>
@@ -10216,9 +10310,9 @@
         <v>-3.4214100531101632E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11">
       <c r="A219" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B219" s="9" t="s">
         <v>28</v>
@@ -10250,9 +10344,9 @@
         <v>-3.621217265444443E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11">
       <c r="A220" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B220" s="9" t="s">
         <v>16</v>
@@ -10289,9 +10383,9 @@
         <v>-4.0958607678906578E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11">
       <c r="A221" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B221" s="9" t="s">
         <v>9</v>
@@ -10328,9 +10422,9 @@
         <v>-4.575749056067524E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11">
       <c r="A222" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B222" s="9" t="s">
         <v>28</v>
@@ -10361,9 +10455,9 @@
         <v>-4.6996562676223874E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11">
       <c r="A223" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B223" s="9" t="s">
         <v>9</v>
@@ -10400,9 +10494,9 @@
         <v>-4.777278179600053E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11">
       <c r="A224" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B224" s="9" t="s">
         <v>9</v>
@@ -10439,9 +10533,9 @@
         <v>-5.4265757871524212E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11">
       <c r="A225" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B225" s="9" t="s">
         <v>24</v>
@@ -10478,9 +10572,9 @@
         <v>-9.275405323689867E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11">
       <c r="A226" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B226" s="9" t="s">
         <v>26</v>
@@ -10517,9 +10611,9 @@
         <v>-9.5954469208047843E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11">
       <c r="A227" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B227" s="9" t="s">
         <v>9</v>
@@ -10556,9 +10650,9 @@
         <v>-0.11418021867862205</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11">
       <c r="A228" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B228" s="9" t="s">
         <v>9</v>
@@ -10595,9 +10689,9 @@
         <v>-0.1476138571429586</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11">
       <c r="A229" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B229" s="9" t="s">
         <v>31</v>
@@ -10634,9 +10728,9 @@
         <v>-0.1477699827452148</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11">
       <c r="A230" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B230" s="9" t="s">
         <v>9</v>
@@ -10673,9 +10767,9 @@
         <v>-0.15293682323051216</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11">
       <c r="A231" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B231" s="9" t="s">
         <v>9</v>
@@ -10712,9 +10806,9 @@
         <v>-0.17609125905568135</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11">
       <c r="A232" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B232" s="9" t="s">
         <v>31</v>
@@ -10751,7 +10845,7 @@
         <v>-0.20202699315008044</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11">
       <c r="A233" s="9" t="s">
         <v>42</v>
       </c>
@@ -10790,9 +10884,9 @@
         <v>-0.21670910996394532</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11">
       <c r="A234" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B234" s="9" t="s">
         <v>26</v>
@@ -10829,9 +10923,9 @@
         <v>-0.24303804868629442</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11">
       <c r="A235" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B235" s="9" t="s">
         <v>16</v>
@@ -10868,15 +10962,15 @@
         <v>-0.24482404633111754</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11">
       <c r="A236" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B236" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C236" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D236" s="9" t="s">
         <v>11</v>
@@ -10907,9 +11001,9 @@
         <v>-0.25272531608942606</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11">
       <c r="A237" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B237" s="9" t="s">
         <v>28</v>
@@ -10940,9 +11034,9 @@
         <v>-0.2762064119389489</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11">
       <c r="A238" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B238" s="9" t="s">
         <v>24</v>
@@ -10979,15 +11073,15 @@
         <v>-0.27620641193894913</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11">
       <c r="A239" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B239" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C239" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D239" s="9" t="s">
         <v>13</v>
@@ -11018,9 +11112,9 @@
         <v>-0.28214465150360724</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11">
       <c r="A240" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B240" s="9" t="s">
         <v>16</v>
@@ -11057,9 +11151,9 @@
         <v>-0.31399497282834865</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13">
       <c r="A241" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B241" s="9" t="s">
         <v>24</v>
@@ -11096,9 +11190,9 @@
         <v>-0.33321467903538249</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13">
       <c r="A242" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B242" s="9" t="s">
         <v>9</v>
@@ -11135,9 +11229,9 @@
         <v>-0.33724216831842613</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13">
       <c r="A243" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B243" s="9" t="s">
         <v>9</v>
@@ -11174,9 +11268,9 @@
         <v>-0.34933467523853601</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13">
       <c r="A244" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B244" s="9" t="s">
         <v>16</v>
@@ -11213,9 +11307,9 @@
         <v>-0.40248763642275875</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13">
       <c r="A245" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B245" s="9" t="s">
         <v>16</v>
@@ -11252,9 +11346,9 @@
         <v>-0.44852119783268218</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13">
       <c r="A246" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B246" s="9" t="s">
         <v>9</v>
@@ -11291,9 +11385,9 @@
         <v>-0.4628214573760383</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13">
       <c r="A247" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B247" s="9" t="s">
         <v>9</v>
@@ -11330,15 +11424,15 @@
         <v>-0.5358437224447048</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13">
       <c r="A248" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B248" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C248" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D248" s="9" t="s">
         <v>13</v>
@@ -11369,9 +11463,9 @@
         <v>-0.58889854526999152</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13">
       <c r="A249" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B249" s="9" t="s">
         <v>16</v>
@@ -11408,9 +11502,9 @@
         <v>-0.59691358438146125</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13">
       <c r="A250" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B250" s="9" t="s">
         <v>28</v>
@@ -11442,15 +11536,15 @@
         <v>-0.6261617739801526</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13">
       <c r="A251" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B251" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C251" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D251" s="9" t="s">
         <v>13</v>
@@ -11481,9 +11575,9 @@
         <v>-0.65321251377534306</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13">
       <c r="A252" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B252" s="9" t="s">
         <v>16</v>
@@ -11520,9 +11614,9 @@
         <v>-0.71972522592663868</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13">
       <c r="A253" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B253" s="9" t="s">
         <v>9</v>
@@ -11559,9 +11653,9 @@
         <v>-0.85387196432176182</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13">
       <c r="A254" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B254" s="9" t="s">
         <v>28</v>
@@ -11592,9 +11686,9 @@
         <v>-1.1903316981702916</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13">
       <c r="A255" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B255" s="9" t="s">
         <v>28</v>
@@ -11625,16 +11719,16 @@
         <v>-1.3891660843645326</v>
       </c>
     </row>
-    <row r="256" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" s="4" customFormat="1">
       <c r="A256" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B256" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="B256" s="12" t="s">
-        <v>70</v>
       </c>
       <c r="C256" s="9"/>
       <c r="D256" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E256" s="13">
         <v>0.15890410958904111</v>
@@ -11660,16 +11754,16 @@
       </c>
       <c r="M256"/>
     </row>
-    <row r="257" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" s="4" customFormat="1">
       <c r="A257" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B257" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C257" s="9"/>
       <c r="D257" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E257" s="13">
         <v>0.63287671232876708</v>
@@ -11695,16 +11789,16 @@
       </c>
       <c r="M257"/>
     </row>
-    <row r="258" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" s="4" customFormat="1">
       <c r="A258" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B258" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C258" s="9"/>
       <c r="D258" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E258" s="13">
         <v>1</v>
@@ -11730,16 +11824,16 @@
       </c>
       <c r="M258"/>
     </row>
-    <row r="259" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" s="4" customFormat="1">
       <c r="A259" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B259" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C259" s="9"/>
       <c r="D259" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E259" s="13">
         <v>1.1666666666666667</v>
@@ -11765,16 +11859,16 @@
       </c>
       <c r="M259"/>
     </row>
-    <row r="260" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" s="4" customFormat="1">
       <c r="A260" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B260" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C260" s="9"/>
       <c r="D260" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E260" s="13">
         <v>1.4958904109589042</v>
@@ -11800,16 +11894,16 @@
       </c>
       <c r="M260"/>
     </row>
-    <row r="261" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" s="4" customFormat="1">
       <c r="A261" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B261" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C261" s="9"/>
       <c r="D261" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E261" s="13">
         <v>1.6</v>
@@ -11835,16 +11929,16 @@
       </c>
       <c r="M261"/>
     </row>
-    <row r="262" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" s="4" customFormat="1">
       <c r="A262" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B262" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C262" s="9"/>
       <c r="D262" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E262" s="13">
         <v>1.75</v>
@@ -11870,16 +11964,16 @@
       </c>
       <c r="M262"/>
     </row>
-    <row r="263" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" s="4" customFormat="1">
       <c r="A263" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B263" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C263" s="9"/>
       <c r="D263" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E263" s="13">
         <v>1.9166666666666667</v>
@@ -11905,16 +11999,16 @@
       </c>
       <c r="M263"/>
     </row>
-    <row r="264" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" s="4" customFormat="1">
       <c r="A264" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B264" s="12" t="s">
         <v>79</v>
-      </c>
-      <c r="B264" s="12" t="s">
-        <v>80</v>
       </c>
       <c r="C264" s="9"/>
       <c r="D264" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E264" s="13">
         <v>8.2191780821917804E-2</v>
@@ -11940,16 +12034,16 @@
       </c>
       <c r="M264"/>
     </row>
-    <row r="265" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" s="4" customFormat="1">
       <c r="A265" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B265" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C265" s="9"/>
       <c r="D265" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E265" s="13">
         <v>9.3150684931506855E-2</v>
@@ -11975,16 +12069,16 @@
       </c>
       <c r="M265"/>
     </row>
-    <row r="266" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" s="4" customFormat="1">
       <c r="A266" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B266" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C266" s="9"/>
       <c r="D266" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E266" s="13">
         <v>0.23835616438356164</v>
@@ -12010,16 +12104,16 @@
       </c>
       <c r="M266"/>
     </row>
-    <row r="267" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" s="4" customFormat="1">
       <c r="A267" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B267" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C267" s="9"/>
       <c r="D267" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E267" s="13">
         <v>0.34520547945205482</v>
@@ -12045,16 +12139,16 @@
       </c>
       <c r="M267"/>
     </row>
-    <row r="268" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" s="4" customFormat="1">
       <c r="A268" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B268" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C268" s="9"/>
       <c r="D268" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E268" s="13">
         <v>0.50136986301369868</v>
@@ -12080,16 +12174,16 @@
       </c>
       <c r="M268"/>
     </row>
-    <row r="269" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" s="4" customFormat="1">
       <c r="A269" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B269" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C269" s="9"/>
       <c r="D269" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E269" s="13">
         <v>1.6109589041095891</v>
@@ -12115,16 +12209,16 @@
       </c>
       <c r="M269"/>
     </row>
-    <row r="270" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" s="4" customFormat="1">
       <c r="A270" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B270" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C270" s="9"/>
       <c r="D270" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E270" s="13">
         <v>2.2520547945205478</v>
@@ -12150,16 +12244,16 @@
       </c>
       <c r="M270"/>
     </row>
-    <row r="271" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" s="4" customFormat="1">
       <c r="A271" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B271" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C271" s="9"/>
       <c r="D271" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E271" s="13">
         <v>3.591780821917808</v>
@@ -12185,16 +12279,16 @@
       </c>
       <c r="M271"/>
     </row>
-    <row r="272" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" s="4" customFormat="1">
       <c r="A272" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B272" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C272" s="9"/>
       <c r="D272" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E272" s="13">
         <v>3.6684931506849314</v>
@@ -12220,16 +12314,16 @@
       </c>
       <c r="M272"/>
     </row>
-    <row r="273" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" s="4" customFormat="1">
       <c r="A273" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B273" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C273" s="9"/>
       <c r="D273" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E273" s="13">
         <v>4.6794520547945204</v>
@@ -12255,16 +12349,16 @@
       </c>
       <c r="M273"/>
     </row>
-    <row r="274" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" s="4" customFormat="1">
       <c r="A274" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B274" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C274" s="9"/>
       <c r="D274" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E274" s="13">
         <v>4.8356164383561646</v>
@@ -12290,16 +12384,16 @@
       </c>
       <c r="M274"/>
     </row>
-    <row r="275" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" s="4" customFormat="1">
       <c r="A275" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B275" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C275" s="9"/>
       <c r="D275" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E275" s="13">
         <v>4.838356164383562</v>
@@ -12325,16 +12419,16 @@
       </c>
       <c r="M275"/>
     </row>
-    <row r="276" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" s="4" customFormat="1">
       <c r="A276" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B276" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C276" s="9"/>
       <c r="D276" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E276" s="13">
         <v>7.6383561643835618</v>
@@ -12360,16 +12454,16 @@
       </c>
       <c r="M276"/>
     </row>
-    <row r="277" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" s="4" customFormat="1">
       <c r="A277" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B277" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C277" s="9"/>
       <c r="D277" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E277" s="13">
         <v>8.2191780821917804E-2</v>
@@ -12395,16 +12489,16 @@
       </c>
       <c r="M277"/>
     </row>
-    <row r="278" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" s="4" customFormat="1">
       <c r="A278" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B278" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C278" s="9"/>
       <c r="D278" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E278" s="13">
         <v>2.2904109589041095</v>
@@ -12430,16 +12524,16 @@
       </c>
       <c r="M278"/>
     </row>
-    <row r="279" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" s="4" customFormat="1">
       <c r="A279" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B279" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C279" s="9"/>
       <c r="D279" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E279" s="13">
         <v>3.6356164383561644</v>
@@ -12465,16 +12559,16 @@
       </c>
       <c r="M279"/>
     </row>
-    <row r="280" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" s="4" customFormat="1">
       <c r="A280" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B280" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C280" s="9"/>
       <c r="D280" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E280" s="13">
         <v>3.9863013698630136</v>
@@ -12500,16 +12594,16 @@
       </c>
       <c r="M280"/>
     </row>
-    <row r="281" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" s="4" customFormat="1">
       <c r="A281" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B281" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C281" s="9"/>
       <c r="D281" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E281" s="13">
         <v>10.005479452054795</v>
@@ -12535,16 +12629,16 @@
       </c>
       <c r="M281"/>
     </row>
-    <row r="282" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" s="4" customFormat="1">
       <c r="A282" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B282" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C282" s="9"/>
       <c r="D282" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E282" s="13">
         <v>11.443835616438356</v>
@@ -12570,16 +12664,16 @@
       </c>
       <c r="M282"/>
     </row>
-    <row r="283" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" s="4" customFormat="1">
       <c r="A283" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B283" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C283" s="9"/>
       <c r="D283" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E283" s="13">
         <v>13.101369863013698</v>
@@ -12605,16 +12699,16 @@
       </c>
       <c r="M283"/>
     </row>
-    <row r="284" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" s="4" customFormat="1">
       <c r="A284" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B284" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C284" s="9"/>
       <c r="D284" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E284" s="13">
         <v>1.3424657534246576</v>
@@ -12640,16 +12734,16 @@
       </c>
       <c r="M284"/>
     </row>
-    <row r="285" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" s="4" customFormat="1">
       <c r="A285" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B285" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C285" s="9"/>
       <c r="D285" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E285" s="13">
         <v>2.1452054794520548</v>
@@ -12675,16 +12769,16 @@
       </c>
       <c r="M285"/>
     </row>
-    <row r="286" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" s="4" customFormat="1">
       <c r="A286" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B286" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C286" s="9"/>
       <c r="D286" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E286" s="13">
         <v>2.1479452054794521</v>
@@ -12710,16 +12804,16 @@
       </c>
       <c r="M286"/>
     </row>
-    <row r="287" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" s="4" customFormat="1">
       <c r="A287" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B287" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C287" s="9"/>
       <c r="D287" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E287" s="13">
         <v>2.2986301369863016</v>
@@ -12745,16 +12839,16 @@
       </c>
       <c r="M287"/>
     </row>
-    <row r="288" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" s="4" customFormat="1">
       <c r="A288" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B288" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C288" s="9"/>
       <c r="D288" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E288" s="13">
         <v>3.6191780821917807</v>
@@ -12780,16 +12874,16 @@
       </c>
       <c r="M288"/>
     </row>
-    <row r="289" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" s="4" customFormat="1">
       <c r="A289" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B289" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C289" s="9"/>
       <c r="D289" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E289" s="13">
         <v>4.0520547945205481</v>
@@ -12815,16 +12909,16 @@
       </c>
       <c r="M289"/>
     </row>
-    <row r="290" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" s="4" customFormat="1">
       <c r="A290" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B290" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C290" s="9"/>
       <c r="D290" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E290" s="13">
         <v>5.1369863013698627</v>
@@ -12850,16 +12944,16 @@
       </c>
       <c r="M290"/>
     </row>
-    <row r="291" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" s="4" customFormat="1">
       <c r="A291" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B291" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C291" s="9"/>
       <c r="D291" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E291" s="13">
         <v>5.3616438356164382</v>
@@ -12885,16 +12979,16 @@
       </c>
       <c r="M291"/>
     </row>
-    <row r="292" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" s="4" customFormat="1">
       <c r="A292" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B292" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C292" s="9"/>
       <c r="D292" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E292" s="13">
         <v>6.9424657534246572</v>
@@ -12920,16 +13014,16 @@
       </c>
       <c r="M292"/>
     </row>
-    <row r="293" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" s="4" customFormat="1">
       <c r="A293" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B293" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C293" s="9"/>
       <c r="D293" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E293" s="13">
         <v>9.7671232876712324</v>
@@ -12955,16 +13049,16 @@
       </c>
       <c r="M293"/>
     </row>
-    <row r="294" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" s="4" customFormat="1">
       <c r="A294" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B294" s="12" t="s">
         <v>96</v>
-      </c>
-      <c r="B294" s="12" t="s">
-        <v>97</v>
       </c>
       <c r="C294" s="9"/>
       <c r="D294" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E294" s="13">
         <v>0</v>
@@ -12990,16 +13084,16 @@
       </c>
       <c r="M294"/>
     </row>
-    <row r="295" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" s="4" customFormat="1">
       <c r="A295" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B295" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C295" s="9"/>
       <c r="D295" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E295" s="13">
         <v>8.3333333333333329E-2</v>
@@ -13025,16 +13119,16 @@
       </c>
       <c r="M295"/>
     </row>
-    <row r="296" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" s="4" customFormat="1">
       <c r="A296" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B296" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C296" s="9"/>
       <c r="D296" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E296" s="13">
         <v>0.25</v>
@@ -13060,16 +13154,16 @@
       </c>
       <c r="M296"/>
     </row>
-    <row r="297" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" s="4" customFormat="1">
       <c r="A297" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B297" s="12" t="s">
         <v>100</v>
-      </c>
-      <c r="B297" s="12" t="s">
-        <v>101</v>
       </c>
       <c r="C297" s="9"/>
       <c r="D297" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E297" s="13">
         <v>2.043835616438356</v>
@@ -13095,16 +13189,16 @@
       </c>
       <c r="M297"/>
     </row>
-    <row r="298" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" s="4" customFormat="1">
       <c r="A298" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B298" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C298" s="9"/>
       <c r="D298" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E298" s="13">
         <v>2.7835616438356166</v>
@@ -13130,16 +13224,16 @@
       </c>
       <c r="M298"/>
     </row>
-    <row r="299" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" s="4" customFormat="1">
       <c r="A299" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B299" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C299" s="9"/>
       <c r="D299" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E299" s="13">
         <v>5.3890410958904109</v>
@@ -13165,16 +13259,16 @@
       </c>
       <c r="M299"/>
     </row>
-    <row r="300" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" s="4" customFormat="1">
       <c r="A300" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B300" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C300" s="9"/>
       <c r="D300" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E300" s="13">
         <v>7.0246575342465754</v>
@@ -13200,16 +13294,16 @@
       </c>
       <c r="M300"/>
     </row>
-    <row r="301" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" s="4" customFormat="1">
       <c r="A301" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B301" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C301" s="9"/>
       <c r="D301" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E301" s="13">
         <v>8.2904109589041095</v>
@@ -13235,16 +13329,16 @@
       </c>
       <c r="M301"/>
     </row>
-    <row r="302" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" s="4" customFormat="1">
       <c r="A302" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B302" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C302" s="9"/>
       <c r="D302" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E302" s="13">
         <v>8.6520547945205486</v>
@@ -13270,16 +13364,16 @@
       </c>
       <c r="M302"/>
     </row>
-    <row r="303" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" s="4" customFormat="1">
       <c r="A303" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B303" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C303" s="9"/>
       <c r="D303" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E303" s="13">
         <v>8.7561643835616429</v>
@@ -13305,16 +13399,16 @@
       </c>
       <c r="M303"/>
     </row>
-    <row r="304" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" s="4" customFormat="1">
       <c r="A304" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B304" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C304" s="9"/>
       <c r="D304" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E304" s="13">
         <v>16.476712328767125</v>
@@ -13340,16 +13434,16 @@
       </c>
       <c r="M304"/>
     </row>
-    <row r="305" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" s="4" customFormat="1">
       <c r="A305" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B305" s="12" t="s">
         <v>109</v>
-      </c>
-      <c r="B305" s="12" t="s">
-        <v>110</v>
       </c>
       <c r="C305" s="9"/>
       <c r="D305" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E305" s="13">
         <v>2.7397260273972601E-2</v>
@@ -13375,16 +13469,16 @@
       </c>
       <c r="M305"/>
     </row>
-    <row r="306" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" s="4" customFormat="1">
       <c r="A306" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B306" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C306" s="9"/>
       <c r="D306" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E306" s="13">
         <v>4.3835616438356165E-2</v>
@@ -13410,16 +13504,16 @@
       </c>
       <c r="M306"/>
     </row>
-    <row r="307" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" s="4" customFormat="1">
       <c r="A307" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B307" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C307" s="9"/>
       <c r="D307" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E307" s="13">
         <v>0.83835616438356164</v>
@@ -13445,16 +13539,16 @@
       </c>
       <c r="M307"/>
     </row>
-    <row r="308" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" s="4" customFormat="1">
       <c r="A308" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B308" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C308" s="9"/>
       <c r="D308" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E308" s="13">
         <v>2.0904109589041098</v>
@@ -13480,7 +13574,7 @@
       </c>
       <c r="M308"/>
     </row>
-    <row r="309" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" s="4" customFormat="1">
       <c r="A309" s="9"/>
       <c r="B309" s="9"/>
       <c r="C309" s="9"/>
@@ -13510,37 +13604,37 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B1" t="s">
         <v>361</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>362</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>0.1</v>
+      </c>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1E-3</v>
-      </c>
-      <c r="B2">
-        <v>1E-3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1000000</v>
       </c>
@@ -13548,21 +13642,21 @@
         <v>1000000</v>
       </c>
       <c r="C3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0.1</v>
+      </c>
+      <c r="C4" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.01</v>
-      </c>
-      <c r="B4">
-        <v>1E-3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>1000000</v>
       </c>
@@ -13570,21 +13664,21 @@
         <v>100000</v>
       </c>
       <c r="C5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+      <c r="C6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.1</v>
-      </c>
-      <c r="B6">
-        <v>1E-3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>1000000</v>
       </c>
@@ -13592,21 +13686,21 @@
         <v>10000</v>
       </c>
       <c r="C7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <v>0.1</v>
+      </c>
+      <c r="C8" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>1E-3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>1000000</v>
       </c>
@@ -13614,21 +13708,21 @@
         <v>1000</v>
       </c>
       <c r="C9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>1000</v>
+      </c>
+      <c r="B10">
+        <v>0.1</v>
+      </c>
+      <c r="C10" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>1E-3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>1000000</v>
       </c>
@@ -13636,21 +13730,21 @@
         <v>100</v>
       </c>
       <c r="C11" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>10000</v>
+      </c>
+      <c r="B12">
+        <v>0.1</v>
+      </c>
+      <c r="C12" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>100</v>
-      </c>
-      <c r="B12">
-        <v>1E-3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>1000000</v>
       </c>
@@ -13658,10 +13752,387 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212B6D8E-3BF3-483C-8552-6E3AFCE92184}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1E-3</v>
+      </c>
+      <c r="B2">
+        <v>1E-3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1000</v>
+      </c>
+      <c r="B3">
+        <v>1000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>0.01</v>
+      </c>
+      <c r="B4">
+        <v>1E-3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>1000</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>0.1</v>
+      </c>
+      <c r="B6">
+        <v>1E-3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>1000</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1E-3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>1000</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>1E-3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>1000</v>
+      </c>
+      <c r="B11">
+        <v>0.1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <v>1E-3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>1000</v>
+      </c>
+      <c r="B13">
+        <v>0.01</v>
+      </c>
+      <c r="C13" t="s">
+        <v>368</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB80F8F-642F-48DE-AE2D-D23C984B7851}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75">
+      <c r="A1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="22">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C2" s="23">
+        <f>B2*1000</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="22">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C3" s="23">
+        <f t="shared" ref="C3:C13" si="0">B3*1000</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B4" s="22">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C4" s="24">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B5" s="22">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C5" s="23">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B6" s="22">
+        <v>2E-3</v>
+      </c>
+      <c r="C6" s="23">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="C7" s="24">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>373</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="C8" s="23"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B9" s="22">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C9" s="23">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="22">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C10" s="23">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>376</v>
+      </c>
+      <c r="B11" s="22">
+        <v>0.7</v>
+      </c>
+      <c r="C11" s="24">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>377</v>
+      </c>
+      <c r="B12" s="22">
+        <v>1</v>
+      </c>
+      <c r="C12" s="24">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>378</v>
+      </c>
+      <c r="B13" s="22">
+        <v>10</v>
+      </c>
+      <c r="C13" s="24">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>379</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="C14" s="25"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="27">
+        <v>1E-3</v>
+      </c>
+      <c r="C15" s="25">
+        <f>B15*1000</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>369</v>
+      </c>
+      <c r="B16" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="C16" s="25">
+        <f>B16*1000</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>380</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>385</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B18" r:id="rId1" xr:uid="{8D92BAE5-0B3A-47D3-B4AF-143EC8F5FE24}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>